--- a/biology/Microbiologie/Brevibacterium/Brevibacterium.xlsx
+++ b/biology/Microbiologie/Brevibacterium/Brevibacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brevibacterium est un genre de bactéries Gram-positives de l'ordre des Micrococcales. Le préfixe « Brevi » signifie « court ». Ce sont des bactéries du sol ou associées à des microbiotes. Il s'agit du seul genre de la famille des Brevibacteriaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>B. acetyliticum
 B. albidum
@@ -535,13 +549,47 @@
 B. paucivorans
 B. permense
 B. picturae
-B. ravsenspurgense[1]
+B. ravsenspurgense
 B. samyangense
 B. sanguinis
-B. stationis
-Espèces reclassées
-Brevibacterium flavum est maintenant reclassée comme Corynebacterium glutamicum[2].
-Brevibacterium stationis pourrait être reclassée comme Corynebacterium stationis[3].</t>
+B. stationis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brevibacterium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brevibacterium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces reclassées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brevibacterium flavum est maintenant reclassée comme Corynebacterium glutamicum.
+Brevibacterium stationis pourrait être reclassée comme Corynebacterium stationis.</t>
         </is>
       </c>
     </row>
